--- a/uploadData.xlsx
+++ b/uploadData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="432" windowWidth="18444" windowHeight="8556"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8556" windowWidth="18444" xWindow="204" yWindow="432"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Do not delete this Row</t>
   </si>
@@ -117,7 +117,7 @@
     <t>Allergan</t>
   </si>
   <si>
-    <t>Xen</t>
+    <t>azwork</t>
   </si>
   <si>
     <t>{{userEmailAddress}}</t>
@@ -138,6 +138,9 @@
     <t>Email Fragment</t>
   </si>
   <si>
+    <t>BotoxTX_Savings_Program_Engagement_Brochure_EF-51078</t>
+  </si>
+  <si>
     <t>United States</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
   </si>
   <si>
     <t>Receipt Template</t>
+  </si>
+  <si>
+    <t>BotoxTX%5FSavings%5FProgram%5FEngagement%5FBrochure%5FEF-51078</t>
   </si>
   <si>
     <t>BotoxTX%5FSavings%5FProgram%5FEngagement%5FBrochure%5FEF%2D51078</t>
@@ -153,49 +159,50 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,44 +238,38 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -558,41 +559,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="3" customWidth="1"/>
-    <col min="4" max="6" width="12.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8.88671875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="28" width="8.88671875" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="8.88671875" style="3"/>
+    <col customWidth="1" max="1" min="1" style="3" width="20.21875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="30"/>
+    <col customWidth="1" max="3" min="3" style="3" width="15"/>
+    <col customWidth="1" max="6" min="4" style="3" width="12.21875"/>
+    <col customWidth="1" max="7" min="7" style="3" width="27.6640625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="3" width="14.21875"/>
+    <col customWidth="1" max="9" min="9" style="3" width="14.44140625"/>
+    <col customWidth="1" max="10" min="10" style="3" width="15"/>
+    <col customWidth="1" max="11" min="11" style="3" width="21"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="3" width="13.21875"/>
+    <col customWidth="1" max="15" min="13" style="3" width="8.88671875"/>
+    <col bestFit="1" customWidth="1" max="16" min="16" style="3" width="12.44140625"/>
+    <col bestFit="1" customWidth="1" max="17" min="17" style="3" width="12"/>
+    <col bestFit="1" customWidth="1" max="18" min="18" style="3" width="18.109375"/>
+    <col bestFit="1" customWidth="1" max="19" min="19" style="3" width="13.77734375"/>
+    <col bestFit="1" customWidth="1" max="20" min="20" style="3" width="14.6640625"/>
+    <col customWidth="1" max="28" min="21" style="3" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="29" style="3" width="8.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="4" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -654,7 +659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="43.2" r="3" s="2" spans="1:20">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -710,7 +715,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="43.2" r="4" s="2" spans="1:20">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -760,7 +765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="43.2" r="5" s="2" spans="1:20">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -774,9 +779,9 @@
         <v>24</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="F5" s="5" t="n"/>
       <c r="G5" s="5" t="s">
         <v>25</v>
       </c>
@@ -821,25 +826,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30" style="2" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="30"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -847,7 +856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -855,50 +864,56 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/uploadData.xlsx
+++ b/uploadData.xlsx
@@ -16,11 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Do not delete this Row</t>
   </si>
   <si>
+    <t>Ref Number</t>
+  </si>
+  <si>
+    <t>5299</t>
+  </si>
+  <si>
     <t>Project name</t>
   </si>
   <si>
@@ -36,9 +42,6 @@
     <t>Tracking Id</t>
   </si>
   <si>
-    <t>Ref No</t>
-  </si>
-  <si>
     <t>Path</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
   </si>
   <si>
     <t>BotoxTX%5FSavings%5FProgram%5FEngagement%5FBrochure%5FEF%2D51078</t>
+  </si>
+  <si>
+    <t>{{$5299}}&amp;amp;BotoxTX%5FSavings%5FProgram%5FEngagement%5FBrochure%5FEF%2D51078</t>
   </si>
 </sst>
 </file>
@@ -564,10 +570,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -575,254 +581,256 @@
     <col customWidth="1" max="1" min="1" style="3" width="20.21875"/>
     <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="30"/>
     <col customWidth="1" max="3" min="3" style="3" width="15"/>
-    <col customWidth="1" max="6" min="4" style="3" width="12.21875"/>
-    <col customWidth="1" max="7" min="7" style="3" width="27.6640625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="3" width="14.21875"/>
-    <col customWidth="1" max="9" min="9" style="3" width="14.44140625"/>
-    <col customWidth="1" max="10" min="10" style="3" width="15"/>
-    <col customWidth="1" max="11" min="11" style="3" width="21"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="3" width="13.21875"/>
-    <col customWidth="1" max="15" min="13" style="3" width="8.88671875"/>
-    <col bestFit="1" customWidth="1" max="16" min="16" style="3" width="12.44140625"/>
-    <col bestFit="1" customWidth="1" max="17" min="17" style="3" width="12"/>
-    <col bestFit="1" customWidth="1" max="18" min="18" style="3" width="18.109375"/>
-    <col bestFit="1" customWidth="1" max="19" min="19" style="3" width="13.77734375"/>
-    <col bestFit="1" customWidth="1" max="20" min="20" style="3" width="14.6640625"/>
-    <col customWidth="1" max="28" min="21" style="3" width="8.88671875"/>
-    <col customWidth="1" max="16384" min="29" style="3" width="8.88671875"/>
+    <col customWidth="1" max="5" min="4" style="3" width="12.21875"/>
+    <col customWidth="1" max="6" min="6" style="3" width="27.6640625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="3" width="14.21875"/>
+    <col customWidth="1" max="8" min="8" style="3" width="14.44140625"/>
+    <col customWidth="1" max="9" min="9" style="3" width="15"/>
+    <col customWidth="1" max="10" min="10" style="3" width="21"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="3" width="13.21875"/>
+    <col customWidth="1" max="14" min="12" style="3" width="8.88671875"/>
+    <col bestFit="1" customWidth="1" max="15" min="15" style="3" width="12.44140625"/>
+    <col bestFit="1" customWidth="1" max="16" min="16" style="3" width="12"/>
+    <col bestFit="1" customWidth="1" max="17" min="17" style="3" width="18.109375"/>
+    <col bestFit="1" customWidth="1" max="18" min="18" style="3" width="13.77734375"/>
+    <col bestFit="1" customWidth="1" max="19" min="19" style="3" width="14.6640625"/>
+    <col customWidth="1" max="42" min="20" style="3" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="43" style="3" width="8.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:19">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row customFormat="1" r="2" s="4" spans="1:20">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="4" spans="1:19">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="43.2" r="3" s="2" spans="1:20">
+      <c r="S2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="43.2" r="3" s="2" spans="1:19">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="43.2" r="4" s="2" spans="1:19">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="43.2" r="4" s="2" spans="1:20">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="O4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="43.2" r="5" s="2" spans="1:19">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="43.2" r="5" s="2" spans="1:20">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="N5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -850,49 +858,49 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
